--- a/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.3_KS_Holdout_seed_42/metrics/Trial_104__Reeval_LHS_Modell_1.3.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.3_KS_Holdout_seed_42/metrics/Trial_104__Reeval_LHS_Modell_1.3.xlsx
@@ -5876,7 +5876,7 @@
                   <c:v>70.3460693359375</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>64.57448577880859</c:v>
+                  <c:v>64.57449340820312</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>61.34161376953125</c:v>
@@ -5888,25 +5888,25 @@
                   <c:v>61.06086730957031</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>65.77691650390625</c:v>
+                  <c:v>65.77690887451172</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>68.26543426513672</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>70.94198608398438</c:v>
+                  <c:v>70.94197845458984</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>60.83312225341797</c:v>
+                  <c:v>60.83311462402344</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>61.43872833251953</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>74.70783233642578</c:v>
+                  <c:v>74.70782470703125</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>68.56239318847656</c:v>
+                  <c:v>68.56238555908203</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>65.22843933105469</c:v>
@@ -5930,13 +5930,13 @@
                   <c:v>63.73984527587891</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>76.07549285888672</c:v>
+                  <c:v>76.07550048828125</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>63.58835601806641</c:v>
+                  <c:v>63.58836364746094</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>70.76632690429688</c:v>
+                  <c:v>70.76631927490234</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>71.06801605224609</c:v>
@@ -5945,22 +5945,22 @@
                   <c:v>65.43315124511719</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>70.91881561279297</c:v>
+                  <c:v>70.9188232421875</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>59.089111328125</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>75.96321868896484</c:v>
+                  <c:v>75.96322631835938</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>66.4161376953125</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>65.42360687255859</c:v>
+                  <c:v>65.42361450195312</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>63.42934417724609</c:v>
+                  <c:v>63.42935180664062</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>64.42231750488281</c:v>
@@ -5984,7 +5984,7 @@
                   <c:v>73.11312866210938</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>64.84030914306641</c:v>
+                  <c:v>64.84031677246094</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>70.93609619140625</c:v>
@@ -5999,7 +5999,7 @@
                   <c:v>54.39161682128906</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>59.07380676269531</c:v>
+                  <c:v>59.07379913330078</c:v>
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>67.266357421875</c:v>
@@ -6008,16 +6008,16 @@
                   <c:v>74.31383514404297</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>66.73165130615234</c:v>
+                  <c:v>66.73164367675781</c:v>
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>60.89669036865234</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>67.97856903076172</c:v>
+                  <c:v>67.97857666015625</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>71.28099822998047</c:v>
+                  <c:v>71.28099060058594</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>64.88716125488281</c:v>
@@ -6026,10 +6026,10 @@
                   <c:v>71.68466186523438</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>67.87486267089844</c:v>
+                  <c:v>67.87485504150391</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>64.75175476074219</c:v>
+                  <c:v>64.75174713134766</c:v>
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>77.74662780761719</c:v>
@@ -6038,7 +6038,7 @@
                   <c:v>75.87303924560547</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>70.39698791503906</c:v>
+                  <c:v>70.39697265625</c:v>
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>70.76620483398438</c:v>
@@ -6047,13 +6047,13 @@
                   <c:v>61.67639923095703</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>63.78197479248047</c:v>
+                  <c:v>63.781982421875</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>68.68122863769531</c:v>
+                  <c:v>68.68122100830078</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>73.20932006835938</c:v>
+                  <c:v>73.20933532714844</c:v>
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>65.60040283203125</c:v>
@@ -6077,19 +6077,19 @@
                   <c:v>65.99008178710938</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>57.20419311523438</c:v>
+                  <c:v>57.20418548583984</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>61.16905975341797</c:v>
+                  <c:v>61.1690673828125</c:v>
                 </c:pt>
                 <c:pt idx="70">
                   <c:v>64.69638824462891</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>68.11519622802734</c:v>
+                  <c:v>68.11520385742188</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>69.34381866455078</c:v>
+                  <c:v>69.34381103515625</c:v>
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>63.87413024902344</c:v>
@@ -6107,13 +6107,13 @@
                   <c:v>64.26203155517578</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>76.88199615478516</c:v>
+                  <c:v>76.88201141357422</c:v>
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>67.29743194580078</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>68.58187103271484</c:v>
+                  <c:v>68.58185577392578</c:v>
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>63.03033447265625</c:v>
@@ -6128,7 +6128,7 @@
                   <c:v>70.08174896240234</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>57.68595886230469</c:v>
+                  <c:v>57.68596649169922</c:v>
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>71.53972625732422</c:v>
@@ -6146,16 +6146,16 @@
                   <c:v>62.73845672607422</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>56.00167083740234</c:v>
+                  <c:v>56.00167846679688</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>78.64988708496094</c:v>
+                  <c:v>78.64989471435547</c:v>
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>73.97775268554688</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>67.78134918212891</c:v>
+                  <c:v>67.78134155273438</c:v>
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>71.07442474365234</c:v>
@@ -6891,7 +6891,7 @@
         <v>59.1361</v>
       </c>
       <c r="F3">
-        <v>64.57448577880859</v>
+        <v>64.57449340820312</v>
       </c>
       <c r="G3">
         <v>99</v>
@@ -7019,7 +7019,7 @@
         <v>87.6867</v>
       </c>
       <c r="F7">
-        <v>65.77691650390625</v>
+        <v>65.77690887451172</v>
       </c>
       <c r="G7">
         <v>99</v>
@@ -7071,7 +7071,7 @@
         <v>73.1687</v>
       </c>
       <c r="F9">
-        <v>70.94198608398438</v>
+        <v>70.94197845458984</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -7091,7 +7091,7 @@
         <v>57.1515</v>
       </c>
       <c r="F10">
-        <v>60.83312225341797</v>
+        <v>60.83311462402344</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -7131,7 +7131,7 @@
         <v>71.7625</v>
       </c>
       <c r="F12">
-        <v>74.70783233642578</v>
+        <v>74.70782470703125</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -7151,7 +7151,7 @@
         <v>50.4651</v>
       </c>
       <c r="F13">
-        <v>68.56239318847656</v>
+        <v>68.56238555908203</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -7311,7 +7311,7 @@
         <v>84.6895</v>
       </c>
       <c r="F21">
-        <v>76.07549285888672</v>
+        <v>76.07550048828125</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -7331,7 +7331,7 @@
         <v>76.97450000000001</v>
       </c>
       <c r="F22">
-        <v>63.58835601806641</v>
+        <v>63.58836364746094</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -7351,7 +7351,7 @@
         <v>74.9674</v>
       </c>
       <c r="F23">
-        <v>70.76632690429688</v>
+        <v>70.76631927490234</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -7411,7 +7411,7 @@
         <v>74.5719</v>
       </c>
       <c r="F26">
-        <v>70.91881561279297</v>
+        <v>70.9188232421875</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -7451,7 +7451,7 @@
         <v>73.9263</v>
       </c>
       <c r="F28">
-        <v>75.96321868896484</v>
+        <v>75.96322631835938</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -7491,7 +7491,7 @@
         <v>47.6665</v>
       </c>
       <c r="F30">
-        <v>65.42360687255859</v>
+        <v>65.42361450195312</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -7511,7 +7511,7 @@
         <v>73.812</v>
       </c>
       <c r="F31">
-        <v>63.42934417724609</v>
+        <v>63.42935180664062</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -7671,7 +7671,7 @@
         <v>84.6387</v>
       </c>
       <c r="F39">
-        <v>64.84030914306641</v>
+        <v>64.84031677246094</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -7771,7 +7771,7 @@
         <v>78.8982</v>
       </c>
       <c r="F44">
-        <v>59.07380676269531</v>
+        <v>59.07379913330078</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -7831,7 +7831,7 @@
         <v>60.7068</v>
       </c>
       <c r="F47">
-        <v>66.73165130615234</v>
+        <v>66.73164367675781</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -7871,7 +7871,7 @@
         <v>53.5828</v>
       </c>
       <c r="F49">
-        <v>67.97856903076172</v>
+        <v>67.97857666015625</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -7891,7 +7891,7 @@
         <v>70.9816</v>
       </c>
       <c r="F50">
-        <v>71.28099822998047</v>
+        <v>71.28099060058594</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -7951,7 +7951,7 @@
         <v>82.1609</v>
       </c>
       <c r="F53">
-        <v>67.87486267089844</v>
+        <v>67.87485504150391</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -7971,7 +7971,7 @@
         <v>44.0149</v>
       </c>
       <c r="F54">
-        <v>64.75175476074219</v>
+        <v>64.75174713134766</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -8031,7 +8031,7 @@
         <v>86.1382</v>
       </c>
       <c r="F57">
-        <v>70.39698791503906</v>
+        <v>70.39697265625</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -8091,7 +8091,7 @@
         <v>30.4312</v>
       </c>
       <c r="F60">
-        <v>63.78197479248047</v>
+        <v>63.781982421875</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -8111,7 +8111,7 @@
         <v>43.5825</v>
       </c>
       <c r="F61">
-        <v>68.68122863769531</v>
+        <v>68.68122100830078</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -8131,7 +8131,7 @@
         <v>46.4093</v>
       </c>
       <c r="F62">
-        <v>73.20932006835938</v>
+        <v>73.20933532714844</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -8291,7 +8291,7 @@
         <v>51.1284</v>
       </c>
       <c r="F70">
-        <v>57.20419311523438</v>
+        <v>57.20418548583984</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -8311,7 +8311,7 @@
         <v>48.8963</v>
       </c>
       <c r="F71">
-        <v>61.16905975341797</v>
+        <v>61.1690673828125</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -8351,7 +8351,7 @@
         <v>83.1452</v>
       </c>
       <c r="F73">
-        <v>68.11519622802734</v>
+        <v>68.11520385742188</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -8371,7 +8371,7 @@
         <v>61.983</v>
       </c>
       <c r="F74">
-        <v>69.34381866455078</v>
+        <v>69.34381103515625</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -8491,7 +8491,7 @@
         <v>66.4979</v>
       </c>
       <c r="F80">
-        <v>76.88199615478516</v>
+        <v>76.88201141357422</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -8531,7 +8531,7 @@
         <v>59.0528</v>
       </c>
       <c r="F82">
-        <v>68.58187103271484</v>
+        <v>68.58185577392578</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -8631,7 +8631,7 @@
         <v>57.7404</v>
       </c>
       <c r="F87">
-        <v>57.68595886230469</v>
+        <v>57.68596649169922</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -8751,7 +8751,7 @@
         <v>77.9066</v>
       </c>
       <c r="F93">
-        <v>56.00167083740234</v>
+        <v>56.00167846679688</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -8771,7 +8771,7 @@
         <v>40.8326</v>
       </c>
       <c r="F94">
-        <v>78.64988708496094</v>
+        <v>78.64989471435547</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -8811,7 +8811,7 @@
         <v>65.7688</v>
       </c>
       <c r="F96">
-        <v>67.78134918212891</v>
+        <v>67.78134155273438</v>
       </c>
     </row>
     <row r="97" spans="1:6">
